--- a/ntu-dsi-dcn/throughput-data/simStats.xlsx
+++ b/ntu-dsi-dcn/throughput-data/simStats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Portland</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>Fattree</t>
+  </si>
+  <si>
+    <t>BCube</t>
+  </si>
+  <si>
+    <t>Three Tier</t>
   </si>
 </sst>
 </file>
@@ -131,8 +137,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800"/>
-              <a:t>Average throughput Per- Flow (Mbps)</a:t>
+              <a:t>Average</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> throughput (Mbps)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -174,82 +185,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
+              <c:f>Sheet1!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Portland</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>99.572</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.5094</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.1162</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98.8219</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fattree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -264,44 +208,115 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$8</c:f>
+              <c:f>Sheet1!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>285.727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>253.893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>251.021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.0</c:v>
+                  <c:v>250.313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fattree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$8</c:f>
+              <c:f>Sheet1!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>99.3185</c:v>
+                  <c:v>190.023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.6844</c:v>
+                  <c:v>194.573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.7519</c:v>
+                  <c:v>192.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.6361</c:v>
+                  <c:v>191.466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Three Tier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>190.023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194.573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,11 +332,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1812509200"/>
-        <c:axId val="1812519952"/>
+        <c:axId val="1770783968"/>
+        <c:axId val="1770785744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1812509200"/>
+        <c:axId val="1770783968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,7 +379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812519952"/>
+        <c:crossAx val="1770785744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -372,7 +387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812519952"/>
+        <c:axId val="1770785744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -422,429 +437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812509200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.369692002088816"/>
-          <c:y val="0.912383273519382"/>
-          <c:w val="0.256907733737444"/>
-          <c:h val="0.0692657683253511"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800"/>
-              <a:t>Average</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" baseline="0"/>
-              <a:t> throughput (Mbps)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1800"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Portland</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$5:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>285.727</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>253.893</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>251.021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250.313</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fattree</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$5:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>190.023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>194.573</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>192.98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>191.466</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1839860688"/>
-        <c:axId val="1839445136"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1839860688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1839445136"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1839445136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1839860688"/>
+        <c:crossAx val="1770783968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -966,550 +559,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2017,19 +1067,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2044,179 +1094,10 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.07469</cdr:x>
-      <cdr:y>0.88884</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.16441</cdr:x>
-      <cdr:y>0.96594</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="786327" y="5948928"/>
-          <a:ext cx="944671" cy="516006"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1"/>
-            <a:t>K Value</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.00949</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.08973</cdr:x>
-      <cdr:y>0.08659</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="63500"/>
-          <a:ext cx="944671" cy="516006"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1"/>
-            <a:t>Mbps</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2682,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2694,14 +1575,15 @@
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2711,7 +1593,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2727,8 +1609,14 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2744,8 +1632,11 @@
       <c r="E5">
         <v>190.023</v>
       </c>
+      <c r="F5">
+        <v>190.023</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -2761,8 +1652,11 @@
       <c r="E6">
         <v>194.57300000000001</v>
       </c>
+      <c r="F6">
+        <v>194.57300000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>16</v>
       </c>
@@ -2778,8 +1672,11 @@
       <c r="E7">
         <v>192.98</v>
       </c>
+      <c r="F7">
+        <v>192.98</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>24</v>
       </c>
@@ -2793,6 +1690,9 @@
         <v>250.31299999999999</v>
       </c>
       <c r="E8">
+        <v>191.46600000000001</v>
+      </c>
+      <c r="F8">
         <v>191.46600000000001</v>
       </c>
     </row>

--- a/ntu-dsi-dcn/throughput-data/simStats.xlsx
+++ b/ntu-dsi-dcn/throughput-data/simStats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,13 +54,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,11 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,7 +191,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -194,52 +200,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Portland</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$5:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>285.727</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>253.893</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>251.021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250.313</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fattree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -254,23 +214,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$8</c:f>
+              <c:f>Sheet1!$A$5:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>190.023</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194.573</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>192.98</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>191.466</c:v>
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>285.727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>253.893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250.313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -278,14 +259,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>Sheet1!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Three Tier</c:v>
+                  <c:v>Fattree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -300,6 +281,94 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>190.023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194.573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Three Tier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$5:$F$8</c:f>
@@ -317,6 +386,73 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>191.466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BCube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>228.063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.5287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.18419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,11 +468,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1770783968"/>
-        <c:axId val="1770785744"/>
+        <c:axId val="-1333264032"/>
+        <c:axId val="-1333261280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1770783968"/>
+        <c:axId val="-1333264032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,7 +515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1770785744"/>
+        <c:crossAx val="-1333261280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -387,7 +523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1770785744"/>
+        <c:axId val="-1333261280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1770783968"/>
+        <c:crossAx val="-1333264032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1565,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1616,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1635,8 +1771,11 @@
       <c r="F5">
         <v>190.023</v>
       </c>
+      <c r="G5" s="2">
+        <v>228.06299999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1655,8 +1794,11 @@
       <c r="F6">
         <v>194.57300000000001</v>
       </c>
+      <c r="G6" s="2">
+        <v>199.922</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -1675,8 +1817,11 @@
       <c r="F7">
         <v>192.98</v>
       </c>
+      <c r="G7" s="2">
+        <v>59.528700000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24</v>
       </c>
@@ -1694,6 +1839,9 @@
       </c>
       <c r="F8">
         <v>191.46600000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>51.184190000000001</v>
       </c>
     </row>
   </sheetData>
